--- a/GATEWAY/A1#111ELEKTA/ELEKTA/MOSAIQ/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111ELEKTA/ELEKTA/MOSAIQ/3/report-checklist.xlsx
@@ -4699,42 +4699,6 @@
 "DIAGNOSI","ACCERTAMENTI CONTROLLI CONSIGLIATI","TERAPIA FARMACOLOGICA CONSIGLIATA","SUGGERIMENTI MEDICO PRESCRITTORE"</t>
   </si>
   <si>
-    <t>f3032e0c7d97878b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.32cd395522^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>180d8aedef9d3c82</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.fd3397774d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>104d970b91695ad4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.ed7af41d7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>335df29dd67a7972</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.ff2a85a360^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>9f278d5b0bc831ff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.61a523253f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d18a86d5c6edec7d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.120a753f58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">L'utente avrà evidenza dell'errore di validazione prima del processo di firma e  aprirà una segnalazione al service desk. Il service desk per risolvere il problema dovrà reperire le informazioni sul parametro di riservatezza dall'applicativo Mosaiq, dove questo parametro é obbligatorio. In caso di mancanza di questa informazione sull'applicativo, farà riferimento al medico. Nel caso in cui l'informazione sarà reperita,  provvederà a risolvere il problema per permettere la creazione di un CDA2 valido. In caso contrario il documento non sarà processabile finché l'informazione non sarà reperita. </t>
   </si>
   <si>
@@ -4750,81 +4714,36 @@
     <t>L'utente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso la mancanza del nome del paziente,  per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
   </si>
   <si>
-    <t>1973fd638681e1b3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.c8c566cc9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'utente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione . Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso incoerenza del codice relativo al sesso,  per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
   </si>
   <si>
-    <t>f46fceadafa9c198</t>
-  </si>
-  <si>
     <t>L'utente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso alla incoerenza del codice relativo alla priorità, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.636fb85908^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e1ef62f4d2c110f6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.9c715cc35b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'utente avrà evidenza dell'errore di validazione prima del processo di firma Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso mancanza dell'identificativo della prescrizione, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
   </si>
   <si>
-    <t>6bfa22f34bbdfd30</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.5648f7ae06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'utente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso mancanza del codice dell'esame, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
   </si>
   <si>
-    <t>3fe82d09715b5b43</t>
-  </si>
-  <si>
     <t>Test  non applicabile. Non supportata la sezione "QUESITO CLINICO"</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.09cf4f7fbe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'utente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso mancanza di parametri obbligatori nella sezione REFERTO , per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
   </si>
   <si>
-    <t>334642b85cbbe6cd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.55df5bfcce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'utente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso mancanza di parametri obbligatori nella sezione PRESTAZIONI , per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
   </si>
   <si>
-    <t>377b75d68ad0ab64</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.4c021f9f92^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Errore semantico durante la validazione del CDA2 (parametro firma non valido)</t>
   </si>
   <si>
     <t>L'utente avrà evidenza dell'errore di validazione prima del processo di firma. Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provederà a risolvere il problema indicato nel messaggio di errore, in questo caso parametro di firma non valido, per permettere la creazione di un CDA2 valido.  Dopo il riscontro dal service desk, il cliente potrà procedere con la firma del documento.</t>
   </si>
   <si>
-    <t>ee3e184389d450d3</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -4832,9 +4751,6 @@
   </si>
   <si>
     <t xml:space="preserve">L'utente avrà evidenza dell'errore di validazione prima del processo di firma . Aprirà una segnalazione al service desk per problemi di validazione. Il service desk provvederà a correggere l’errore nella creazione del JWT e ad effettuare il deploy in produzione per permettere la corretta comunicazione con il gateway e quindi la validazione del CDA2. Il cliente potrà proseguire con la firma digitale del referto. </t>
-  </si>
-  <si>
-    <t>bd8ac1532e15d296</t>
   </si>
   <si>
     <t>Il service desk provvederà a correggere l’errore nella creazione del JWT e ad effettuare il deploy in produzione per permettere la corretta validazione del CDA2.</t>
@@ -4863,55 +4779,140 @@
     <t>subject_application_version:3</t>
   </si>
   <si>
-    <t>2024-05-14T10:30:10Z</t>
-  </si>
-  <si>
-    <t>2024-05-14T10:38:56Z</t>
-  </si>
-  <si>
-    <t>2024-05-14T10:49:16Z</t>
-  </si>
-  <si>
-    <t>2024-05-10T17:23:38Z</t>
-  </si>
-  <si>
-    <t>2024-05-13T10:20:12Z</t>
-  </si>
-  <si>
-    <t>2024-05-13T10:38:17Z</t>
-  </si>
-  <si>
-    <t>2024-05-13T11:02:24Z</t>
-  </si>
-  <si>
-    <t>2024-05-13T11:50:51Z</t>
-  </si>
-  <si>
-    <t>2024-05-13T12:29:35Z</t>
-  </si>
-  <si>
-    <t>2024-05-13T12:38:00Z</t>
-  </si>
-  <si>
-    <t>2024-05-13T12:45:09Z</t>
-  </si>
-  <si>
-    <t>2024-05-13T12:55:42Z</t>
-  </si>
-  <si>
-    <t>2024-05-14T09:09:47Z</t>
-  </si>
-  <si>
-    <t>2024-05-14T09:28:20Z</t>
-  </si>
-  <si>
-    <t>2024-05-14T09:36:24Z</t>
-  </si>
-  <si>
-    <t>2024-05-10T16:00:29Z</t>
-  </si>
-  <si>
     <t>ELEKTA S.p.A</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.b5fccc72a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:10:55Z</t>
+  </si>
+  <si>
+    <t>548ebeeee1b50a64</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:14:39Z</t>
+  </si>
+  <si>
+    <t>c13a5ccd32d76312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.4e94609892^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
+ </t>
+  </si>
+  <si>
+    <t>2024-05-17T08:26:26Z</t>
+  </si>
+  <si>
+    <t>923e674f449327e8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.11e3894f51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4213490668d37e48</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:28:28Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.66f1d5cd16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.8cfea70849^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:33:12Z</t>
+  </si>
+  <si>
+    <t>511f3192e1a7dcea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.ce2024cc6c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b7f17e7a9afa8b11</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:35:59Z</t>
+  </si>
+  <si>
+    <t>bfcb7ae01f9d93f9</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:38:12Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.1c1b9aa43c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.ca5406a4bd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3dfc3f6a94ecfd0f</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:45:20Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.d2b5d370eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:47:57Z</t>
+  </si>
+  <si>
+    <t>22ef664c4a47aede</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.59d50811f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ba831e6cfe2299af</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:50:33Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.ebfe07e4df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>241b3f7d08595e65</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:53:02Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.f0d536da6b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>e9bd5c9fdaf38a88</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:56:45Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2e8dc7a001a107c61282df6b5e3f0695a0dd04efbdbd6976ed005ffb10472a15.3ddf4f5019^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>784e6e543b85306e</t>
+  </si>
+  <si>
+    <t>2024-05-17T08:59:15Z</t>
+  </si>
+  <si>
+    <t>2024-05-17T09:03:10Z</t>
+  </si>
+  <si>
+    <t>5695967d51f203b9</t>
+  </si>
+  <si>
+    <t>2024-05-17T09:05:44Z</t>
+  </si>
+  <si>
+    <t>a9090e99575cd39e</t>
+  </si>
+  <si>
+    <t>2024-05-17T09:09:16Z</t>
   </si>
 </sst>
 </file>
@@ -7858,8 +7859,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="O176" sqref="O176"/>
+    <sheetView tabSelected="1" topLeftCell="F175" workbookViewId="0">
+      <selection activeCell="F55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7909,7 +7910,7 @@
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="50" t="s">
-        <v>935</v>
+        <v>891</v>
       </c>
       <c r="D2" s="49"/>
       <c r="F2" s="12"/>
@@ -7934,7 +7935,7 @@
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="57" t="s">
-        <v>916</v>
+        <v>888</v>
       </c>
       <c r="D3" s="49"/>
       <c r="F3" s="12"/>
@@ -7957,7 +7958,7 @@
       <c r="A4" s="53"/>
       <c r="B4" s="54"/>
       <c r="C4" s="57" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="4"/>
@@ -7981,7 +7982,7 @@
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
-        <v>918</v>
+        <v>890</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5"/>
@@ -9123,16 +9124,16 @@
         <v>103</v>
       </c>
       <c r="F39" s="44">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>906</v>
+        <v>932</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>138</v>
@@ -9145,13 +9146,13 @@
         <v>138</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="Q39" s="25" t="s">
         <v>104</v>
@@ -9417,16 +9418,16 @@
         <v>129</v>
       </c>
       <c r="F47" s="44">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>910</v>
+        <v>934</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>138</v>
@@ -9439,13 +9440,13 @@
         <v>138</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="O47" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>913</v>
+        <v>885</v>
       </c>
       <c r="Q47" s="25" t="s">
         <v>104</v>
@@ -9483,7 +9484,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
       <c r="P48" s="25" t="s">
-        <v>911</v>
+        <v>883</v>
       </c>
       <c r="Q48" s="25"/>
       <c r="R48" s="26"/>
@@ -9519,7 +9520,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25" t="s">
-        <v>912</v>
+        <v>884</v>
       </c>
       <c r="Q49" s="25"/>
       <c r="R49" s="26"/>
@@ -9723,10 +9724,10 @@
         <v>137</v>
       </c>
       <c r="F55" s="44">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
@@ -9741,13 +9742,13 @@
         <v>138</v>
       </c>
       <c r="N55" s="25" t="s">
-        <v>914</v>
+        <v>886</v>
       </c>
       <c r="O55" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>915</v>
+        <v>887</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26" t="s">
@@ -13265,16 +13266,16 @@
         <v>345</v>
       </c>
       <c r="F158" s="44">
-        <v>45422</v>
+        <v>45429</v>
       </c>
       <c r="G158" s="24" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="H158" s="24" t="s">
-        <v>867</v>
+        <v>896</v>
       </c>
       <c r="I158" s="24" t="s">
-        <v>868</v>
+        <v>897</v>
       </c>
       <c r="J158" s="25" t="s">
         <v>138</v>
@@ -13293,7 +13294,7 @@
         <v>138</v>
       </c>
       <c r="P158" s="25" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="Q158" s="25"/>
       <c r="R158" s="26"/>
@@ -13319,16 +13320,16 @@
         <v>347</v>
       </c>
       <c r="F159" s="44">
-        <v>45425</v>
+        <v>45429</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>869</v>
+        <v>899</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="J159" s="35" t="s">
         <v>138</v>
@@ -13347,7 +13348,7 @@
         <v>138</v>
       </c>
       <c r="P159" s="25" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="Q159" s="25"/>
       <c r="R159" s="26"/>
@@ -13373,16 +13374,16 @@
         <v>349</v>
       </c>
       <c r="F160" s="44">
-        <v>45425</v>
+        <v>45429</v>
       </c>
       <c r="G160" s="24" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="H160" s="24" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>872</v>
+        <v>903</v>
       </c>
       <c r="J160" s="25" t="s">
         <v>138</v>
@@ -13401,7 +13402,7 @@
         <v>138</v>
       </c>
       <c r="P160" s="25" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="Q160" s="25"/>
       <c r="R160" s="26"/>
@@ -13427,16 +13428,16 @@
         <v>351</v>
       </c>
       <c r="F161" s="44">
-        <v>45425</v>
+        <v>45429</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>873</v>
+        <v>906</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>874</v>
+        <v>904</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>138</v>
@@ -13455,7 +13456,7 @@
         <v>138</v>
       </c>
       <c r="P161" s="25" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="Q161" s="25"/>
       <c r="R161" s="26"/>
@@ -13481,16 +13482,16 @@
         <v>353</v>
       </c>
       <c r="F162" s="44">
-        <v>45425</v>
+        <v>45429</v>
       </c>
       <c r="G162" s="24" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="H162" s="24" t="s">
-        <v>875</v>
+        <v>908</v>
       </c>
       <c r="I162" s="24" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="J162" s="25" t="s">
         <v>138</v>
@@ -13509,7 +13510,7 @@
         <v>138</v>
       </c>
       <c r="P162" s="25" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="Q162" s="25"/>
       <c r="R162" s="26"/>
@@ -13535,16 +13536,16 @@
         <v>355</v>
       </c>
       <c r="F163" s="44">
-        <v>45425</v>
+        <v>45429</v>
       </c>
       <c r="G163" s="24" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="H163" s="24" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="I163" s="24" t="s">
-        <v>883</v>
+        <v>912</v>
       </c>
       <c r="J163" s="35" t="s">
         <v>138</v>
@@ -13563,7 +13564,7 @@
         <v>138</v>
       </c>
       <c r="P163" s="25" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="Q163" s="25"/>
       <c r="R163" s="26"/>
@@ -13627,16 +13628,16 @@
         <v>359</v>
       </c>
       <c r="F165" s="44">
-        <v>45425</v>
+        <v>45429</v>
       </c>
       <c r="G165" s="24" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="H165" s="24" t="s">
-        <v>885</v>
+        <v>914</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>887</v>
+        <v>913</v>
       </c>
       <c r="J165" s="25" t="s">
         <v>138</v>
@@ -13655,7 +13656,7 @@
         <v>138</v>
       </c>
       <c r="P165" s="25" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="Q165" s="25"/>
       <c r="R165" s="26"/>
@@ -13681,16 +13682,16 @@
         <v>361</v>
       </c>
       <c r="F166" s="44">
-        <v>45425</v>
+        <v>45429</v>
       </c>
       <c r="G166" s="24" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="H166" s="24" t="s">
-        <v>888</v>
+        <v>918</v>
       </c>
       <c r="I166" s="24" t="s">
-        <v>889</v>
+        <v>916</v>
       </c>
       <c r="J166" s="25" t="s">
         <v>138</v>
@@ -13709,7 +13710,7 @@
         <v>138</v>
       </c>
       <c r="P166" s="25" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="Q166" s="25"/>
       <c r="R166" s="26"/>
@@ -13735,16 +13736,16 @@
         <v>363</v>
       </c>
       <c r="F167" s="44">
-        <v>45425</v>
+        <v>45429</v>
       </c>
       <c r="G167" s="24" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="H167" s="24" t="s">
-        <v>891</v>
+        <v>920</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>892</v>
+        <v>919</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>138</v>
@@ -13763,7 +13764,7 @@
         <v>138</v>
       </c>
       <c r="P167" s="25" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="Q167" s="25"/>
       <c r="R167" s="26"/>
@@ -13789,16 +13790,16 @@
         <v>365</v>
       </c>
       <c r="F168" s="44">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="G168" s="24" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="H168" s="24" t="s">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>897</v>
+        <v>922</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -13817,7 +13818,7 @@
         <v>138</v>
       </c>
       <c r="P168" s="25" t="s">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="Q168" s="25"/>
       <c r="R168" s="26"/>
@@ -13850,12 +13851,12 @@
         <v>847</v>
       </c>
       <c r="K169" s="25" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
       <c r="N169" s="25" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="O169" s="25"/>
       <c r="P169" s="25"/>
@@ -13883,16 +13884,16 @@
         <v>369</v>
       </c>
       <c r="F170" s="44">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="G170" s="24" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="H170" s="24" t="s">
-        <v>899</v>
+        <v>926</v>
       </c>
       <c r="I170" s="24" t="s">
-        <v>900</v>
+        <v>925</v>
       </c>
       <c r="J170" s="25" t="s">
         <v>138</v>
@@ -13911,7 +13912,7 @@
         <v>138</v>
       </c>
       <c r="P170" s="25" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="Q170" s="25"/>
       <c r="R170" s="26"/>
@@ -14127,16 +14128,16 @@
         <v>381</v>
       </c>
       <c r="F176" s="44">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="G176" s="24" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H176" s="24" t="s">
-        <v>902</v>
+        <v>929</v>
       </c>
       <c r="I176" s="24" t="s">
-        <v>903</v>
+        <v>928</v>
       </c>
       <c r="J176" s="25" t="s">
         <v>138</v>
@@ -14149,13 +14150,13 @@
         <v>138</v>
       </c>
       <c r="N176" s="25" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="O176" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P176" s="25" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="Q176" s="25"/>
       <c r="R176" s="26"/>
@@ -21117,16 +21118,16 @@
         <v>789</v>
       </c>
       <c r="F381" s="44">
-        <v>45422</v>
+        <v>45429</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>934</v>
+        <v>893</v>
       </c>
       <c r="H381" s="24" t="s">
-        <v>865</v>
+        <v>894</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>866</v>
+        <v>892</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>138</v>
